--- a/data/134/DEUSTATIS/National accounts - Gross fixed capital formation years.xlsx
+++ b/data/134/DEUSTATIS/National accounts - Gross fixed capital formation years.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="65">
   <si>
     <t>National accounts - Gross fixed capital formation (nominal/
 price-adjusted): Germany, years</t>
@@ -120,6 +120,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>At current prices (bn EUR)</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
     <t xml:space="preserve">            Machinery</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t xml:space="preserve">            Transport equipment</t>
   </si>
   <si>
@@ -201,7 +207,7 @@
     <t>resources.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:38:24</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:38:23</t>
   </si>
 </sst>
 </file>
@@ -645,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -825,6 +831,10 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -953,6 +963,10 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -962,6 +976,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1124,114 +1142,117 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="85">
+      <c r="A4" t="s" s="87">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="86">
+      <c r="B4" t="s" s="88">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="87">
+      <c r="C4" t="s" s="89">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="88">
+      <c r="D4" t="s" s="90">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="89">
+      <c r="E4" t="s" s="91">
         <v>7</v>
       </c>
-      <c r="F4" t="s" s="90">
+      <c r="F4" t="s" s="92">
         <v>8</v>
       </c>
-      <c r="G4" t="s" s="91">
+      <c r="G4" t="s" s="93">
         <v>9</v>
       </c>
-      <c r="H4" t="s" s="92">
+      <c r="H4" t="s" s="94">
         <v>10</v>
       </c>
-      <c r="I4" t="s" s="93">
+      <c r="I4" t="s" s="95">
         <v>11</v>
       </c>
-      <c r="J4" t="s" s="94">
+      <c r="J4" t="s" s="96">
         <v>12</v>
       </c>
-      <c r="K4" t="s" s="95">
+      <c r="K4" t="s" s="97">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="96">
+      <c r="L4" t="s" s="98">
         <v>14</v>
       </c>
-      <c r="M4" t="s" s="97">
+      <c r="M4" t="s" s="99">
         <v>15</v>
       </c>
-      <c r="N4" t="s" s="98">
+      <c r="N4" t="s" s="100">
         <v>16</v>
       </c>
-      <c r="O4" t="s" s="99">
+      <c r="O4" t="s" s="101">
         <v>17</v>
       </c>
-      <c r="P4" t="s" s="100">
+      <c r="P4" t="s" s="102">
         <v>18</v>
       </c>
-      <c r="Q4" t="s" s="101">
+      <c r="Q4" t="s" s="103">
         <v>19</v>
       </c>
-      <c r="R4" t="s" s="102">
+      <c r="R4" t="s" s="104">
         <v>20</v>
       </c>
-      <c r="S4" t="s" s="103">
+      <c r="S4" t="s" s="105">
         <v>21</v>
       </c>
-      <c r="T4" t="s" s="104">
+      <c r="T4" t="s" s="106">
         <v>22</v>
       </c>
-      <c r="U4" t="s" s="105">
+      <c r="U4" t="s" s="107">
         <v>23</v>
       </c>
-      <c r="V4" t="s" s="106">
+      <c r="V4" t="s" s="108">
         <v>24</v>
       </c>
-      <c r="W4" t="s" s="107">
+      <c r="W4" t="s" s="109">
         <v>25</v>
       </c>
-      <c r="X4" t="s" s="108">
+      <c r="X4" t="s" s="110">
         <v>26</v>
       </c>
-      <c r="Y4" t="s" s="109">
+      <c r="Y4" t="s" s="111">
         <v>27</v>
       </c>
-      <c r="Z4" t="s" s="110">
+      <c r="Z4" t="s" s="112">
         <v>28</v>
       </c>
-      <c r="AA4" t="s" s="111">
+      <c r="AA4" t="s" s="113">
         <v>29</v>
       </c>
-      <c r="AB4" t="s" s="112">
+      <c r="AB4" t="s" s="114">
         <v>30</v>
       </c>
-      <c r="AC4" t="s" s="113">
+      <c r="AC4" t="s" s="115">
         <v>31</v>
       </c>
-      <c r="AD4" t="s" s="114">
+      <c r="AD4" t="s" s="116">
         <v>32</v>
       </c>
-      <c r="AE4" t="s" s="115">
+      <c r="AE4" t="s" s="117">
         <v>33</v>
       </c>
-      <c r="AF4" t="s" s="116">
+      <c r="AF4" t="s" s="118">
         <v>34</v>
+      </c>
+      <c r="AG4" t="s" s="119">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="33.75" customHeight="true">
       <c r="A5" t="s" s="14">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n" s="10">
         <v>394.721</v>
@@ -1323,13 +1344,16 @@
       <c r="AF6" t="n" s="10">
         <v>735.869</v>
       </c>
+      <c r="AG6" t="n" s="10">
+        <v>783.896</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="B7" t="s" s="13">
-        <v>37</v>
       </c>
       <c r="C7" t="n" s="10">
         <v>157.554</v>
@@ -1421,13 +1445,16 @@
       <c r="AF7" t="n" s="10">
         <v>216.903</v>
       </c>
+      <c r="AG7" t="n" s="10">
+        <v>228.165</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n" s="10">
         <v>121.342</v>
@@ -1519,13 +1546,16 @@
       <c r="AF8" t="n" s="10">
         <v>153.645</v>
       </c>
+      <c r="AG8" t="s" s="10">
+        <v>41</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n" s="10">
         <v>36.212</v>
@@ -1617,13 +1647,16 @@
       <c r="AF9" t="n" s="10">
         <v>63.258</v>
       </c>
+      <c r="AG9" t="s" s="10">
+        <v>41</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n" s="10">
         <v>192.846</v>
@@ -1715,13 +1748,16 @@
       <c r="AF10" t="n" s="10">
         <v>380.064</v>
       </c>
+      <c r="AG10" t="n" s="10">
+        <v>414.26</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n" s="10">
         <v>96.146</v>
@@ -1813,13 +1849,16 @@
       <c r="AF11" t="n" s="10">
         <v>234.44</v>
       </c>
+      <c r="AG11" t="n" s="10">
+        <v>257.644</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n" s="10">
         <v>96.7</v>
@@ -1911,13 +1950,16 @@
       <c r="AF12" t="n" s="10">
         <v>145.624</v>
       </c>
+      <c r="AG12" t="n" s="10">
+        <v>156.616</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="n" s="10">
         <v>61.986</v>
@@ -2009,13 +2051,16 @@
       <c r="AF13" t="n" s="10">
         <v>93.43</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>100.219</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n" s="10">
         <v>34.714</v>
@@ -2107,13 +2152,16 @@
       <c r="AF14" t="n" s="10">
         <v>52.194</v>
       </c>
+      <c r="AG14" t="n" s="10">
+        <v>56.397</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n" s="10">
         <v>44.321</v>
@@ -2205,18 +2253,21 @@
       <c r="AF15" t="n" s="10">
         <v>138.902</v>
       </c>
+      <c r="AG15" t="n" s="10">
+        <v>141.471</v>
+      </c>
     </row>
     <row r="16" ht="33.75" customHeight="true">
       <c r="A16" t="s" s="14">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n" s="10">
         <v>80.79</v>
@@ -2308,13 +2359,16 @@
       <c r="AF17" t="n" s="10">
         <v>109.67</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>111.27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="B18" t="s" s="13">
-        <v>37</v>
       </c>
       <c r="C18" t="n" s="10">
         <v>70.53</v>
@@ -2406,13 +2460,16 @@
       <c r="AF18" t="n" s="10">
         <v>100.46</v>
       </c>
+      <c r="AG18" t="n" s="10">
+        <v>103.86</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n" s="10">
         <v>68.36</v>
@@ -2504,13 +2561,16 @@
       <c r="AF19" t="n" s="10">
         <v>99.46</v>
       </c>
+      <c r="AG19" t="s" s="10">
+        <v>41</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n" s="10">
         <v>78.27</v>
@@ -2602,13 +2662,16 @@
       <c r="AF20" t="n" s="10">
         <v>103.09</v>
       </c>
+      <c r="AG20" t="s" s="10">
+        <v>41</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n" s="10">
         <v>100.0</v>
@@ -2700,13 +2763,16 @@
       <c r="AF21" t="n" s="10">
         <v>111.43</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>112.16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="n" s="10">
         <v>83.37</v>
@@ -2798,13 +2864,16 @@
       <c r="AF22" t="n" s="10">
         <v>114.49</v>
       </c>
+      <c r="AG22" t="n" s="10">
+        <v>115.93</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="n" s="10">
         <v>125.27</v>
@@ -2896,13 +2965,16 @@
       <c r="AF23" t="n" s="10">
         <v>106.82</v>
       </c>
+      <c r="AG23" t="n" s="10">
+        <v>106.47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="n" s="10">
         <v>129.81</v>
@@ -2994,13 +3066,16 @@
       <c r="AF24" t="n" s="10">
         <v>103.5</v>
       </c>
+      <c r="AG24" t="n" s="10">
+        <v>102.08</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="n" s="10">
         <v>117.56</v>
@@ -3092,13 +3167,16 @@
       <c r="AF25" t="n" s="10">
         <v>113.39</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>115.14</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="n" s="10">
         <v>53.89</v>
@@ -3190,18 +3268,21 @@
       <c r="AF26" t="n" s="10">
         <v>121.07</v>
       </c>
+      <c r="AG26" t="n" s="10">
+        <v>121.89</v>
+      </c>
     </row>
     <row r="27" ht="33.75" customHeight="true">
       <c r="A27" t="s" s="14">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="n" s="10">
         <v>489.455</v>
@@ -3293,13 +3374,16 @@
       <c r="AF28" t="n" s="10">
         <v>664.42</v>
       </c>
+      <c r="AG28" t="n" s="10">
+        <v>674.114</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="B29" t="s" s="13">
-        <v>37</v>
       </c>
       <c r="C29" t="n" s="10">
         <v>145.957</v>
@@ -3391,13 +3475,16 @@
       <c r="AF29" t="n" s="10">
         <v>207.895</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>214.931</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="n" s="10">
         <v>101.698</v>
@@ -3489,13 +3576,16 @@
       <c r="AF30" t="n" s="10">
         <v>147.965</v>
       </c>
+      <c r="AG30" t="s" s="10">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" t="n" s="10">
         <v>45.534</v>
@@ -3587,13 +3677,16 @@
       <c r="AF31" t="n" s="10">
         <v>59.973</v>
       </c>
+      <c r="AG31" t="s" s="10">
+        <v>41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="n" s="10">
         <v>291.243</v>
@@ -3685,13 +3778,16 @@
       <c r="AF32" t="n" s="10">
         <v>324.532</v>
       </c>
+      <c r="AG32" t="n" s="10">
+        <v>326.658</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="n" s="10">
         <v>146.202</v>
@@ -3783,13 +3879,16 @@
       <c r="AF33" t="n" s="10">
         <v>200.775</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>203.301</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="n" s="10">
         <v>145.16</v>
@@ -3881,13 +3980,16 @@
       <c r="AF34" t="n" s="10">
         <v>123.781</v>
       </c>
+      <c r="AG34" t="n" s="10">
+        <v>123.375</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="n" s="10">
         <v>100.3</v>
@@ -3979,13 +4081,16 @@
       <c r="AF35" t="n" s="10">
         <v>79.971</v>
       </c>
+      <c r="AG35" t="n" s="10">
+        <v>78.874</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="n" s="10">
         <v>45.391</v>
@@ -4077,13 +4182,16 @@
       <c r="AF36" t="n" s="10">
         <v>43.781</v>
       </c>
+      <c r="AG36" t="n" s="10">
+        <v>44.457</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" t="n" s="10">
         <v>58.013</v>
@@ -4175,21 +4283,24 @@
       <c r="AF37" t="n" s="10">
         <v>130.332</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>131.215</v>
+      </c>
     </row>
     <row r="38" ht="33.75" customHeight="true">
       <c r="A38" t="s" s="14">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D39" t="n" s="10">
         <v>412.399</v>
@@ -4278,16 +4389,19 @@
       <c r="AF39" t="n" s="10">
         <v>725.699</v>
       </c>
+      <c r="AG39" t="n" s="10">
+        <v>746.624</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="B40" t="s" s="13">
-        <v>37</v>
-      </c>
       <c r="C40" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D40" t="n" s="10">
         <v>152.526</v>
@@ -4376,16 +4490,19 @@
       <c r="AF40" t="n" s="10">
         <v>214.118</v>
       </c>
+      <c r="AG40" t="n" s="10">
+        <v>224.256</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D41" t="n" s="10">
         <v>119.727</v>
@@ -4474,16 +4591,19 @@
       <c r="AF41" t="n" s="10">
         <v>151.436</v>
       </c>
+      <c r="AG41" t="s" s="10">
+        <v>41</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D42" t="n" s="10">
         <v>32.799</v>
@@ -4572,16 +4692,19 @@
       <c r="AF42" t="n" s="10">
         <v>62.682</v>
       </c>
+      <c r="AG42" t="s" s="10">
+        <v>41</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D43" t="n" s="10">
         <v>212.794</v>
@@ -4670,16 +4793,19 @@
       <c r="AF43" t="n" s="10">
         <v>373.163</v>
       </c>
+      <c r="AG43" t="n" s="10">
+        <v>382.534</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D44" t="n" s="10">
         <v>105.826</v>
@@ -4768,16 +4894,19 @@
       <c r="AF44" t="n" s="10">
         <v>230.269</v>
       </c>
+      <c r="AG44" t="n" s="10">
+        <v>237.386</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D45" t="n" s="10">
         <v>106.968</v>
@@ -4866,16 +4995,19 @@
       <c r="AF45" t="n" s="10">
         <v>142.894</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>145.148</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D46" t="n" s="10">
         <v>67.871</v>
@@ -4964,16 +5096,19 @@
       <c r="AF46" t="n" s="10">
         <v>91.363</v>
       </c>
+      <c r="AG46" t="n" s="10">
+        <v>92.15</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D47" t="n" s="10">
         <v>39.097</v>
@@ -5062,16 +5197,19 @@
       <c r="AF47" t="n" s="10">
         <v>51.531</v>
       </c>
+      <c r="AG47" t="n" s="10">
+        <v>52.998</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D48" t="n" s="10">
         <v>47.079</v>
@@ -5160,85 +5298,88 @@
       <c r="AF48" t="n" s="10">
         <v>138.418</v>
       </c>
+      <c r="AG48" t="n" s="10">
+        <v>139.834</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="12">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:AF3"/>
-    <mergeCell ref="A5:AF5"/>
-    <mergeCell ref="A16:AF16"/>
-    <mergeCell ref="A27:AF27"/>
-    <mergeCell ref="A38:AF38"/>
-    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="A5:AG5"/>
+    <mergeCell ref="A16:AG16"/>
+    <mergeCell ref="A27:AG27"/>
+    <mergeCell ref="A38:AG38"/>
+    <mergeCell ref="A1:AG1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:38:29&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:38:28&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>